--- a/08-2025-completo_comissião.xlsx
+++ b/08-2025-completo_comissião.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
   <si>
     <t>Nm supervisor</t>
   </si>
@@ -61,15 +61,15 @@
     <t>ANDREIA</t>
   </si>
   <si>
+    <t>ALDO</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
     <t>SEM SUPERVISOR</t>
   </si>
   <si>
-    <t>ALDO</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
     <t>EDILMA</t>
   </si>
   <si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>CAIO MARCELO VIGHI VISCARD E CIA LT</t>
-  </si>
-  <si>
-    <t>PAULO RAMOS</t>
   </si>
   <si>
     <t>AGW REPRESENTAÇOES COMERCIAIS</t>
@@ -661,7 +658,7 @@
         <v>7406</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>1470.5</v>
@@ -696,7 +693,7 @@
         <v>7407</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>2770.6</v>
@@ -728,7 +725,7 @@
         <v>7408</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>1151.1</v>
@@ -760,7 +757,7 @@
         <v>7409</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>7405.47</v>
@@ -795,7 +792,7 @@
         <v>7410</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>4436</v>
@@ -827,7 +824,7 @@
         <v>7411</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>5440</v>
@@ -859,7 +856,7 @@
         <v>7412</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>1202.64</v>
@@ -894,7 +891,7 @@
         <v>7413</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>4100</v>
@@ -917,10 +914,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <v>45870</v>
@@ -929,7 +926,7 @@
         <v>7414</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>2968.75</v>
@@ -961,7 +958,7 @@
         <v>7415</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>1346.6</v>
@@ -981,10 +978,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>45870</v>
@@ -993,7 +990,7 @@
         <v>7416</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>1680.6</v>
@@ -1013,10 +1010,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>45870</v>
@@ -1025,7 +1022,7 @@
         <v>7417</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>9726.35</v>
@@ -1057,7 +1054,7 @@
         <v>7419</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>454.3</v>
@@ -1092,7 +1089,7 @@
         <v>7420</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>907.5</v>
@@ -1115,10 +1112,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
         <v>45876</v>
@@ -1127,7 +1124,7 @@
         <v>7422</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <v>3923.64</v>
@@ -1162,7 +1159,7 @@
         <v>7423</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>2393.5</v>
@@ -1185,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
         <v>45876</v>
@@ -1194,7 +1191,7 @@
         <v>7424</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18">
         <v>3007.2</v>
@@ -1223,7 +1220,7 @@
         <v>7425</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>2349</v>
@@ -1255,7 +1252,7 @@
         <v>7426</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>1990</v>
@@ -1278,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
         <v>45876</v>
@@ -1287,7 +1284,7 @@
         <v>7427</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>5827.36</v>
@@ -1319,7 +1316,7 @@
         <v>7429</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>1532.9</v>
@@ -1351,7 +1348,7 @@
         <v>7430</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23">
         <v>5977.68</v>
@@ -1386,7 +1383,7 @@
         <v>7431</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24">
         <v>1047.5</v>
@@ -1418,7 +1415,7 @@
         <v>7432</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25">
         <v>11542.3</v>
@@ -1453,7 +1450,7 @@
         <v>7433</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>1851.93</v>
@@ -1488,7 +1485,7 @@
         <v>7434</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27">
         <v>15077.28</v>
@@ -1520,7 +1517,7 @@
         <v>7436</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28">
         <v>5096.4</v>
@@ -1546,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
         <v>45881</v>
@@ -1555,7 +1552,7 @@
         <v>7437</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>2558.7</v>
@@ -1578,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
         <v>45881</v>
@@ -1587,7 +1584,7 @@
         <v>7438</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>2184</v>
@@ -1607,10 +1604,10 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
         <v>45884</v>
@@ -1619,7 +1616,7 @@
         <v>7439</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F31">
         <v>8903.200000000001</v>
@@ -1639,10 +1636,10 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2">
         <v>45884</v>
@@ -1651,7 +1648,7 @@
         <v>7440</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32">
         <v>1143</v>
@@ -1671,10 +1668,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2">
         <v>45884</v>
@@ -1683,7 +1680,7 @@
         <v>7441</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33">
         <v>2916.1</v>
@@ -1706,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2">
         <v>45884</v>
@@ -1715,7 +1712,7 @@
         <v>7442</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34">
         <v>2026.1</v>
@@ -1750,7 +1747,7 @@
         <v>7443</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35">
         <v>1886.8</v>
@@ -1773,7 +1770,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2">
         <v>45884</v>
@@ -1782,7 +1779,7 @@
         <v>7444</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36">
         <v>9477.799999999999</v>
@@ -1805,7 +1802,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2">
         <v>45884</v>
@@ -1814,7 +1811,7 @@
         <v>7445</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <v>4485.6</v>
@@ -1834,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="2">
         <v>45884</v>
@@ -1843,7 +1840,7 @@
         <v>7446</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38">
         <v>7580.9</v>
@@ -1875,7 +1872,7 @@
         <v>7447</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39">
         <v>4007.25</v>
@@ -1907,7 +1904,7 @@
         <v>7448</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40">
         <v>2504.2</v>
@@ -1927,10 +1924,10 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="2">
         <v>45884</v>
@@ -1939,7 +1936,7 @@
         <v>7449</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41">
         <v>2779.65</v>
@@ -1968,7 +1965,7 @@
         <v>7450</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42">
         <v>2176.7</v>
@@ -2000,7 +1997,7 @@
         <v>7455</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43">
         <v>1640.6</v>
@@ -2035,7 +2032,7 @@
         <v>7456</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F44">
         <v>1642.9</v>
@@ -2067,7 +2064,7 @@
         <v>7458</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45">
         <v>1640.6</v>
@@ -2102,7 +2099,7 @@
         <v>7459</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46">
         <v>4446.35</v>
@@ -2122,10 +2119,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" s="2">
         <v>45890</v>
@@ -2134,7 +2131,7 @@
         <v>7460</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47">
         <v>2779.65</v>
@@ -2154,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="2">
         <v>45890</v>
@@ -2163,7 +2160,7 @@
         <v>7461</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48">
         <v>17749.06</v>
@@ -2195,7 +2192,7 @@
         <v>7462</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F49">
         <v>7228.65</v>
@@ -2227,7 +2224,7 @@
         <v>7463</v>
       </c>
       <c r="E50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F50">
         <v>14117</v>
@@ -2250,10 +2247,10 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2">
         <v>45890</v>
@@ -2262,7 +2259,7 @@
         <v>7464</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51">
         <v>299.4</v>
@@ -2282,10 +2279,10 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="2">
         <v>45897</v>
@@ -2294,7 +2291,7 @@
         <v>7466</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52">
         <v>8903.200000000001</v>
@@ -2314,10 +2311,10 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="2">
         <v>45897</v>
@@ -2326,7 +2323,7 @@
         <v>7467</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G53">
         <v>11952.2</v>
@@ -2355,7 +2352,7 @@
         <v>7468</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F54">
         <v>7432</v>
@@ -2378,10 +2375,10 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="2">
         <v>45897</v>
@@ -2390,7 +2387,7 @@
         <v>7469</v>
       </c>
       <c r="E55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F55">
         <v>5411.5</v>
@@ -2413,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="2">
         <v>45897</v>
@@ -2422,7 +2419,7 @@
         <v>7470</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F56">
         <v>7580.9</v>
@@ -2454,7 +2451,7 @@
         <v>7471</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F57">
         <v>5047.52</v>
@@ -2477,10 +2474,10 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2">
         <v>45897</v>
@@ -2489,7 +2486,7 @@
         <v>7473</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58">
         <v>1230.7</v>
